--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F486B31C-7B63-4109-81AD-511EC69E14E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBEDAF-7627-4F2E-B84B-82417164CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Päivä</t>
   </si>
@@ -52,14 +52,17 @@
   <si>
     <t>Firebasen opettelua ja pystyyn pistämistä</t>
   </si>
+  <si>
+    <t>Firebasen opettelua ja mapsAPIn toiminnan selvittämistä</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="167" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -92,12 +95,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -115,14 +118,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0;[Red]0.0"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -139,14 +142,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C42" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C42" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:C42" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
       <calculatedColumnFormula>SUM(B$2:B$41)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,14 +455,14 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,208 +487,214 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
+      <c r="C31" s="6"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
+      <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" ref="B2:B42" si="0">SUM(B$2:B$41)</f>
-        <v>1.5</v>
+        <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
+        <v>3</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FBEDAF-7627-4F2E-B84B-82417164CE70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8714197-E3BD-4294-8545-5A38F101BAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Päivä</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Firebasen opettelua ja mapsAPIn toiminnan selvittämistä</t>
+  </si>
+  <si>
+    <t>Three.js:n harjoittelua ja demoamista. Mahdollisesti kiipeily seinän tekemiseen applikaatioon.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44020</v>
       </c>
@@ -487,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44021</v>
       </c>
@@ -498,10 +501,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -694,7 +703,7 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8714197-E3BD-4294-8545-5A38F101BAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE961A-F1FB-46C5-9A2B-C6E56549584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Päivä</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Three.js:n harjoittelua ja demoamista. Mahdollisesti kiipeily seinän tekemiseen applikaatioon.</t>
+  </si>
+  <si>
+    <t>Three.js harjottelua</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +516,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="3">
+        <v>44021</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -703,7 +712,7 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE961A-F1FB-46C5-9A2B-C6E56549584F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9878AC-D06F-4024-BA22-AEFBFE5DAA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Päivä</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Three.js harjottelua</t>
+  </si>
+  <si>
+    <t>Blender objectien ja three.js:n yhteen sovittelua</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,9 +530,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="3">
+        <v>44022</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -712,7 +721,7 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9878AC-D06F-4024-BA22-AEFBFE5DAA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6466E4-0EEE-45DE-BF84-5D3BC3FC29B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="6615" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Päivä</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Blender objectien ja three.js:n yhteen sovittelua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacki muutettu firebasen maksullisten cloud funktio muutosten takia. Uus stacki front: react, redux, javascript/three.js back: node </t>
+  </si>
+  <si>
+    <t>Stacki vaihettu taas: hostaus: firebase ja login: Oauth</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,11 +111,7 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -118,16 +120,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;[Red]0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -155,10 +161,10 @@
   <autoFilter ref="A1:C42" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="0">
       <calculatedColumnFormula>SUM(B$2:B$41)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -464,13 +470,13 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,7 +484,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -486,244 +492,256 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44020</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>1.5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44021</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>1.5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44021</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44021</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>0.5</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44022</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>7.5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="6"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="6"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="6"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="6"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="6"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>13</v>
-      </c>
-      <c r="C42" s="5" t="s">
+        <v>14.5</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6466E4-0EEE-45DE-BF84-5D3BC3FC29B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D7BF8-6EB8-42ED-92C7-676E247E96E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="2310" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Päivä</t>
   </si>
@@ -53,22 +53,31 @@
     <t>Firebasen opettelua ja pystyyn pistämistä</t>
   </si>
   <si>
-    <t>Firebasen opettelua ja mapsAPIn toiminnan selvittämistä</t>
-  </si>
-  <si>
-    <t>Three.js:n harjoittelua ja demoamista. Mahdollisesti kiipeily seinän tekemiseen applikaatioon.</t>
-  </si>
-  <si>
     <t>Three.js harjottelua</t>
   </si>
   <si>
-    <t>Blender objectien ja three.js:n yhteen sovittelua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stacki muutettu firebasen maksullisten cloud funktio muutosten takia. Uus stacki front: react, redux, javascript/three.js back: node </t>
   </si>
   <si>
     <t>Stacki vaihettu taas: hostaus: firebase ja login: Oauth</t>
+  </si>
+  <si>
+    <t>Firebase with react</t>
+  </si>
+  <si>
+    <t>3d mallien importtaaminen ja menun rakentaminen</t>
+  </si>
+  <si>
+    <t>Three.js:n harjoittelua ja demoamista. Mahdollisesti animaatioiden tekoa sivulle</t>
+  </si>
+  <si>
+    <t>Firebasen opettelua</t>
+  </si>
+  <si>
+    <t>Three.js:n objectien muodostamista</t>
+  </si>
+  <si>
+    <t>Databasen rakentamista, validaattoreidenn tekemistä</t>
   </si>
 </sst>
 </file>
@@ -77,7 +86,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -120,8 +129,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -130,10 +139,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -161,10 +170,10 @@
   <autoFilter ref="A1:C42" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
       <calculatedColumnFormula>SUM(B$2:B$41)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,7 +479,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44021</v>
       </c>
@@ -510,10 +519,10 @@
         <v>1.5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44021</v>
       </c>
@@ -521,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +541,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,10 +549,10 @@
         <v>44022</v>
       </c>
       <c r="B6" s="6">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -554,7 +563,7 @@
         <v>1.25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -565,23 +574,41 @@
         <v>0.25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
+      <c r="A9" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -739,7 +766,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>14.5</v>
+        <v>22.5</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D7BF8-6EB8-42ED-92C7-676E247E96E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664968B-3A28-4E23-8B8F-365843BBBC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Päivä</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Databasen rakentamista, validaattoreidenn tekemistä</t>
+  </si>
+  <si>
+    <t>Backarin paikkojen validaattoreiden tekemistä ja testaamista</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,10 +613,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B12" s="6">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -766,7 +775,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664968B-3A28-4E23-8B8F-365843BBBC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DBDB7A-0C95-4F26-8DBF-DE54A3D4AAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Päivä</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Backarin paikkojen validaattoreiden tekemistä ja testaamista</t>
+  </si>
+  <si>
+    <t>Validaattoreiden testaamista</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,9 +628,15 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -775,7 +784,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>27.5</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DBDB7A-0C95-4F26-8DBF-DE54A3D4AAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266CA0A-1A84-4732-ADE1-1095EFD89583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Päivä</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Validaattoreiden testaamista</t>
+  </si>
+  <si>
+    <t>Backari hommia: moduulien hajauttamista, ja testien parantelemista</t>
   </si>
 </sst>
 </file>
@@ -484,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +641,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44038</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -784,7 +793,7 @@
       </c>
       <c r="B42" s="6">
         <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266CA0A-1A84-4732-ADE1-1095EFD89583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBF598-D7A1-4C4B-A264-4D45446999D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Päivä</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Firebasen opettelua ja pystyyn pistämistä</t>
   </si>
   <si>
-    <t>Three.js harjottelua</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stacki muutettu firebasen maksullisten cloud funktio muutosten takia. Uus stacki front: react, redux, javascript/three.js back: node </t>
   </si>
   <si>
@@ -65,18 +62,9 @@
     <t>Firebase with react</t>
   </si>
   <si>
-    <t>3d mallien importtaaminen ja menun rakentaminen</t>
-  </si>
-  <si>
-    <t>Three.js:n harjoittelua ja demoamista. Mahdollisesti animaatioiden tekoa sivulle</t>
-  </si>
-  <si>
     <t>Firebasen opettelua</t>
   </si>
   <si>
-    <t>Three.js:n objectien muodostamista</t>
-  </si>
-  <si>
     <t>Databasen rakentamista, validaattoreidenn tekemistä</t>
   </si>
   <si>
@@ -87,6 +75,12 @@
   </si>
   <si>
     <t>Backari hommia: moduulien hajauttamista, ja testien parantelemista</t>
+  </si>
+  <si>
+    <t>Layouttien suunnittelua ja frontin tekemistä</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mahdollisesti animaatioiden tekoa sivulle</t>
   </si>
 </sst>
 </file>
@@ -175,12 +169,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C42" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C42" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C39" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C39" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
-      <calculatedColumnFormula>SUM(B$2:B$41)</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(B$2:B$38)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{1F33100E-4C74-4639-8B4B-8B49CE3360E9}" name="Mitä tein" dataDxfId="0"/>
   </tableColumns>
@@ -485,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,10 +522,10 @@
         <v>1.5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44021</v>
       </c>
@@ -539,118 +533,106 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44021</v>
+        <v>44025</v>
       </c>
       <c r="B5" s="6">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44022</v>
+        <v>44025</v>
       </c>
       <c r="B6" s="6">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44025</v>
       </c>
       <c r="B7" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44025</v>
+        <v>44033</v>
       </c>
       <c r="B8" s="6">
-        <v>0.25</v>
+        <v>4.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44025</v>
+        <v>44035</v>
       </c>
       <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B10" s="6">
         <v>1.5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44033</v>
+        <v>44038</v>
       </c>
       <c r="B11" s="6">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44035</v>
+        <v>44039</v>
       </c>
       <c r="B12" s="6">
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B14" s="6">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -773,29 +755,14 @@
       <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="6">
-        <f t="shared" ref="B42" si="0">SUM(B$2:B$41)</f>
-        <v>35</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B39" s="6">
+        <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBF598-D7A1-4C4B-A264-4D45446999D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4F6E6-E5CF-41D0-ABF3-1541B3947BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Päivä</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Mahdollisesti animaatioiden tekoa sivulle</t>
+  </si>
+  <si>
+    <t>Paikkojen näyttämistä yhdessä sivussa ja hinta-ja aukiolo listan tekemistä</t>
   </si>
 </sst>
 </file>
@@ -166,6 +169,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0317281-89C9-4721-9799-495632B6A8ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1466850" y="3619500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,7 +538,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +680,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -760,7 +822,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -769,8 +831,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4F6E6-E5CF-41D0-ABF3-1541B3947BBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46151B-F8FA-4FCA-BD92-578EC6329EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Päivä</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Paikkojen näyttämistä yhdessä sivussa ja hinta-ja aukiolo listan tekemistä</t>
+  </si>
+  <si>
+    <t>Urlit, aukioloajat ja hintalistat workkimaan</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,9 +695,15 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -822,7 +831,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>31.5</v>
+        <v>32.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB46151B-F8FA-4FCA-BD92-578EC6329EC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415609B-6FED-4736-B0FB-FC4E62494DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Päivä</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Urlit, aukioloajat ja hintalistat workkimaan</t>
+  </si>
+  <si>
+    <t>Onko paikka auki, muutettu databasea ja backaria</t>
   </si>
 </sst>
 </file>
@@ -205,6 +208,54 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1466850" y="3619500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C92821-C3D3-47CC-B943-04BB88DE43D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1466850" y="4191000"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -540,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,9 +757,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -831,7 +888,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>32.75</v>
+        <v>35.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F415609B-6FED-4736-B0FB-FC4E62494DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794ED549-92E8-444A-A9AE-B892C51C8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Päivä</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Onko paikka auki, muutettu databasea ja backaria</t>
+  </si>
+  <si>
+    <t>Refaktorointia ja layout suunnittelua</t>
   </si>
 </sst>
 </file>
@@ -592,7 +595,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,9 +771,15 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -888,7 +897,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>35.75</v>
+        <v>37.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794ED549-92E8-444A-A9AE-B892C51C8CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC79F268-64B7-435C-86F3-A8E692028669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Päivä</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Refaktorointia ja layout suunnittelua</t>
+  </si>
+  <si>
+    <t>Sivu suunnittelua adobe XD</t>
+  </si>
+  <si>
+    <t>Adobe XD:llä ja css:llä suunittelua</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,14 +788,26 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -897,7 +915,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>37.25</v>
+        <v>40.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC79F268-64B7-435C-86F3-A8E692028669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3E841-1DA8-43B4-95E2-3594EC8E39A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Päivä</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Adobe XD:llä ja css:llä suunittelua</t>
+  </si>
+  <si>
+    <t>Alotettu kommentoimisen mahollistamista ja formi suunnittelua</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,10 +812,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -915,7 +924,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>40.25</v>
+        <v>42.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E3E841-1DA8-43B4-95E2-3594EC8E39A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AF0617-ABFE-4C03-9055-4F8A31683ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Päivä</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Alotettu kommentoimisen mahollistamista ja formi suunnittelua</t>
+  </si>
+  <si>
+    <t>CommentSection alustettu kommentoiminen mahdollista ja oauth käyttöön</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C22:C23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,10 +826,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B20" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -924,7 +933,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>42.75</v>
+        <v>46.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AF0617-ABFE-4C03-9055-4F8A31683ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939D820-9F94-47CA-8371-E68E6280D770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Päivä</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>CommentSection alustettu kommentoiminen mahdollista ja oauth käyttöön</t>
+  </si>
+  <si>
+    <t>Oauthin toiminnan selvittämistä ja usereiden tallentamisen ja toiminnan suunnittelua</t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +840,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4"/>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -933,7 +942,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>46.25</v>
+        <v>49.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B939D820-9F94-47CA-8371-E68E6280D770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AB175-EB77-4FA2-A1FE-5D134C917748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Päivä</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Oauthin toiminnan selvittämistä ja usereiden tallentamisen ja toiminnan suunnittelua</t>
+  </si>
+  <si>
+    <t>User mallien toimintaa ja discriminaattoreiden tekoa eri käyttäjille</t>
   </si>
 </sst>
 </file>
@@ -118,13 +121,19 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -162,6 +171,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K30" sqref="K29:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +863,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4"/>
+    <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -942,7 +960,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>49.25</v>
+        <v>50.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445AB175-EB77-4FA2-A1FE-5D134C917748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D09E2-5F5A-4C34-971B-03C341303B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Päivä</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>User mallien toimintaa ja discriminaattoreiden tekoa eri käyttäjille</t>
+  </si>
+  <si>
+    <t>User malleja toimintaan - thirdparty login ja järkevän tavan etsintää, toteuttamaan käyttäjänhallintaa</t>
   </si>
 </sst>
 </file>
@@ -621,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K30" sqref="K29:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +877,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
@@ -960,7 +969,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>50.75</v>
+        <v>56.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D09E2-5F5A-4C34-971B-03C341303B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61B6BA-1981-4B78-93EA-BC78DF07E701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Päivä</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>User malleja toimintaan - thirdparty login ja järkevän tavan etsintää, toteuttamaan käyttäjänhallintaa</t>
+  </si>
+  <si>
+    <t>GoogleLoginnin kehittämistä ja validoimiseen tutustumista</t>
   </si>
 </sst>
 </file>
@@ -625,7 +628,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +891,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
@@ -969,7 +978,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>56.75</v>
+        <v>59.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B61B6BA-1981-4B78-93EA-BC78DF07E701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71196B84-CDFE-40CA-98B9-ABA9516FACCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Päivä</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>GoogleLoginnin kehittämistä ja validoimiseen tutustumista</t>
+  </si>
+  <si>
+    <t>GoogleLoginnin/Oauthin toimintaan saamista</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,9 +906,15 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B25" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
@@ -978,7 +987,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>59.25</v>
+        <v>62.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71196B84-CDFE-40CA-98B9-ABA9516FACCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B053019-AA7C-4C8E-8284-E8D3BD25290D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Päivä</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>GoogleLoginnin/Oauthin toimintaan saamista</t>
+  </si>
+  <si>
+    <t>Google login, varmennus, on-site login ja tokenit toimimaan</t>
   </si>
 </sst>
 </file>
@@ -630,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,10 +919,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -987,7 +996,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>62.75</v>
+        <v>68.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B053019-AA7C-4C8E-8284-E8D3BD25290D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502D0BD-C47D-44EF-A63F-819A524E3684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Päivä</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Google login, varmennus, on-site login ja tokenit toimimaan</t>
+  </si>
+  <si>
+    <t>Käyttäjänhallinnan mahdollistamista, kuvien hallinnan mahdollistamista</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,10 +933,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B27" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -996,7 +1005,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>68.75</v>
+        <v>72.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502D0BD-C47D-44EF-A63F-819A524E3684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE581E2E-7BEA-4075-BA5B-D6D7BB6F7983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Päivä</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Käyttäjänhallinnan mahdollistamista, kuvien hallinnan mahdollistamista</t>
+  </si>
+  <si>
+    <t>Kuvien syöttämistä backarille käyttäjänhallintaa ja firebasen sääntöjen tutkimista</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +152,12 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -188,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -637,7 +649,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,10 +956,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
@@ -1005,7 +1023,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>72.25</v>
+        <v>74.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE581E2E-7BEA-4075-BA5B-D6D7BB6F7983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456C431-ACDA-439E-8BE0-1FBDA6CE5746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Päivä</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Kuvien syöttämistä backarille käyttäjänhallintaa ja firebasen sääntöjen tutkimista</t>
+  </si>
+  <si>
+    <t>profiilikuvan tallentamista sekä session id:n suunnittelua</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,10 +970,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4"/>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
@@ -1023,7 +1032,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>74.75</v>
+        <v>77.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0456C431-ACDA-439E-8BE0-1FBDA6CE5746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745ACC4D-53B0-4B57-9AE5-BA7AA339447B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Päivä</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>profiilikuvan tallentamista sekä session id:n suunnittelua</t>
+  </si>
+  <si>
+    <t>Logo suunnittelua</t>
   </si>
 </sst>
 </file>
@@ -652,7 +655,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,9 +985,15 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1032,7 +1041,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>77.75</v>
+        <v>79.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745ACC4D-53B0-4B57-9AE5-BA7AA339447B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516F647-8979-4E6D-B6A5-82D76319BC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Päivä</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Logo suunnittelua</t>
+  </si>
+  <si>
+    <t>Logon suunnittelu, kuvan lataamisen ja optimointi</t>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,10 +998,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1041,7 +1050,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>79.25</v>
+        <v>81.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516F647-8979-4E6D-B6A5-82D76319BC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5F392-E957-4BD0-BE94-587EF0FEC54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Päivä</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Logon suunnittelu, kuvan lataamisen ja optimointi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serveri puolen kuvien kompressoimisen tekeminen ja userit näkymään </t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,10 +1012,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1050,7 +1059,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>81.75</v>
+        <v>83.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F5F392-E957-4BD0-BE94-587EF0FEC54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F34A43-00B1-4B3F-A2AC-1802437D2C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Päivä</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Serveri puolen kuvien kompressoimisen tekeminen ja userit näkymään </t>
+  </si>
+  <si>
+    <t>Kuvien lataaminen serveriltä sekä productio version testaus</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,10 +1026,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
@@ -1059,7 +1068,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>83.75</v>
+        <v>87.75</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F34A43-00B1-4B3F-A2AC-1802437D2C59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224F97C-A96E-43D6-8D1C-CC96C76DE155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="945" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Päivä</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Kuvien lataaminen serveriltä sekä productio version testaus</t>
+  </si>
+  <si>
+    <t>usernamen generoimista ja cookieiden käyttöä localstoragen sijasta.</t>
   </si>
 </sst>
 </file>
@@ -663,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,10 +1040,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -1068,7 +1077,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>87.75</v>
+        <v>90.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5224F97C-A96E-43D6-8D1C-CC96C76DE155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338C9EA-574C-49B3-BA43-AF2A23F62704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Päivä</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>usernamen generoimista ja cookieiden käyttöä localstoragen sijasta.</t>
+  </si>
+  <si>
+    <t>Backendin testaamista ja confirmaatio sähköpostin lähettämistä</t>
   </si>
 </sst>
 </file>
@@ -667,7 +670,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,10 +1054,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
@@ -1077,7 +1086,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>90.25</v>
+        <v>93.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2338C9EA-574C-49B3-BA43-AF2A23F62704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC729025-6716-466F-9611-9684A10C76BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Päivä</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Backendin testaamista ja confirmaatio sähköpostin lähettämistä</t>
+  </si>
+  <si>
+    <t>Backarin testaamista postmanilla</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,9 +1069,15 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
@@ -1086,7 +1095,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>93.25</v>
+        <v>96.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC729025-6716-466F-9611-9684A10C76BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ED5FC0-D91C-4A28-AF99-7A291C8D6355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Päivä</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Backarin testaamista postmanilla</t>
+  </si>
+  <si>
+    <t>User update toimimaan ja tokenien muuttelua</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,9 +1083,15 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B37" s="6">
+        <v>2</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -1095,7 +1104,7 @@
       </c>
       <c r="B39" s="6">
         <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>96.25</v>
+        <v>98.25</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68ED5FC0-D91C-4A28-AF99-7A291C8D6355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4625BF-955B-4B35-B1B4-AA87B986FE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Päivä</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Aika (h)</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Done!</t>
-  </si>
-  <si>
     <t>Firebasen opettelua ja pystyyn pistämistä</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
   </si>
   <si>
     <t>User update toimimaan ja tokenien muuttelua</t>
+  </si>
+  <si>
+    <t>Change password ja reset password toimintaan sekä frontin layout suunnittelua.</t>
   </si>
 </sst>
 </file>
@@ -363,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C39" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C39" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C60" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C60" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
@@ -673,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +702,7 @@
         <v>1.5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +713,7 @@
         <v>1.5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -738,7 +735,7 @@
         <v>1.25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -749,7 +746,7 @@
         <v>0.25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,7 +757,7 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -771,7 +768,7 @@
         <v>4.5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -782,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +790,7 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -804,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -826,7 +823,7 @@
         <v>1.5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,7 +834,7 @@
         <v>1.25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,7 +856,7 @@
         <v>1.5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>2.5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -903,7 +900,7 @@
         <v>3.5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -914,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" x14ac:dyDescent="0.25">
@@ -925,7 +922,7 @@
         <v>1.5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -936,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -947,7 +944,7 @@
         <v>2.5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -969,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -980,7 +977,7 @@
         <v>3.5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -991,7 +988,7 @@
         <v>2.5</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1002,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,7 +1010,7 @@
         <v>1.5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1024,7 +1021,7 @@
         <v>2.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1035,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1046,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1057,7 +1054,7 @@
         <v>2.5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1068,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,25 +1087,132 @@
         <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B38" s="6">
+        <v>6</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="6">
-        <f t="shared" ref="B39" si="0">SUM(B$2:B$38)</f>
-        <v>98.25</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="6">
+        <f>SUM(B$2:B$59)</f>
+        <v>104.25</v>
+      </c>
+      <c r="C60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4625BF-955B-4B35-B1B4-AA87B986FE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8015B0ED-F755-41E1-B53E-551A5556C0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Päivä</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Change password ja reset password toimintaan sekä frontin layout suunnittelua.</t>
+  </si>
+  <si>
+    <t>Sivun wireframea ja adobe xd:hen tutustumista</t>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,9 +1105,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B39" s="6">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1210,7 +1219,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>104.25</v>
+        <v>109.25</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8015B0ED-F755-41E1-B53E-551A5556C0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F89F9C-5CE9-47C9-BBBA-A1C9537CC839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Päivä</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Sivun wireframea ja adobe xd:hen tutustumista</t>
+  </si>
+  <si>
+    <t>8/26/2020-8/27/2020</t>
+  </si>
+  <si>
+    <t>Adobe XD:llä sivujen wireframe kuntoo</t>
   </si>
 </sst>
 </file>
@@ -207,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -227,6 +233,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -675,13 +684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
   </cols>
@@ -1115,10 +1124,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
@@ -1219,7 +1234,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>109.25</v>
+        <v>114.75</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F89F9C-5CE9-47C9-BBBA-A1C9537CC839}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C51730-F070-4656-87A0-CFB29F4290BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Päivä</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Adobe XD:llä sivujen wireframe kuntoo</t>
+  </si>
+  <si>
+    <t>Adobe XD:llä sivujen hifi version suunnittelemistsa</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,9 +1139,15 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -1234,7 +1243,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>114.75</v>
+        <v>119.75</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C51730-F070-4656-87A0-CFB29F4290BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFB732-A98B-441A-949C-64CAC892AED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Päivä</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Adobe XD:llä sivujen hifi version suunnittelemistsa</t>
+  </si>
+  <si>
+    <t>Adobe XD:llä hifi version tekemistä ja logon uusiminen</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,10 +1152,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
@@ -1243,7 +1252,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>119.75</v>
+        <v>126.25</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAFB732-A98B-441A-949C-64CAC892AED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC411D-884E-4F57-A000-2E0AD26D6432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Päivä</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>Adobe XD:llä hifi version tekemistä ja logon uusiminen</t>
+  </si>
+  <si>
+    <t>Sivujen hifi versio vallmiiks ja html alustamista</t>
   </si>
 </sst>
 </file>
@@ -690,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,9 +1167,15 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
@@ -1252,7 +1261,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>126.25</v>
+        <v>132.25</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CC411D-884E-4F57-A000-2E0AD26D6432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA816D63-BB90-4DAB-AE3C-60F84A237384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Päivä</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Sivujen hifi versio vallmiiks ja html alustamista</t>
+  </si>
+  <si>
+    <t>Html pohjat valmiiks</t>
   </si>
 </sst>
 </file>
@@ -693,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,9 +1181,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="2">
+        <v>44072</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
@@ -1261,7 +1270,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>132.25</v>
+        <v>133</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA816D63-BB90-4DAB-AE3C-60F84A237384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5378C9A9-5CF1-446E-92DA-AA9882A1F693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Päivä</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Html pohjat valmiiks</t>
+  </si>
+  <si>
+    <t>Html sivujen ja css:n toteuttamista</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,9 +1195,15 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B45" s="6">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
@@ -1270,7 +1279,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5378C9A9-5CF1-446E-92DA-AA9882A1F693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0E9A8-C296-4BD9-A391-8CB0354439E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Päivä</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Html sivujen ja css:n toteuttamista</t>
+  </si>
+  <si>
+    <t>Landing page css: footer ja content</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,9 +1209,15 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1279,7 +1288,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0E9A8-C296-4BD9-A391-8CB0354439E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA3D91-C2B6-4144-A9D4-75BF732D51A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27360" yWindow="720" windowWidth="21600" windowHeight="11385" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-18930" yWindow="2595" windowWidth="8625" windowHeight="9990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Päivä</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Landing page css: footer ja content</t>
+  </si>
+  <si>
+    <t>CSS: responsiivisuutta</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,9 +1223,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B47" s="6">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
@@ -1288,7 +1297,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA3D91-C2B6-4144-A9D4-75BF732D51A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47BB99-0C4C-4C6E-8F2A-2727515BF1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18930" yWindow="2595" windowWidth="8625" windowHeight="9990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Päivä</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>CSS: responsiivisuutta</t>
+  </si>
+  <si>
+    <t>CSS: sivuja</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,9 +1237,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B48" s="6">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -1297,7 +1306,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="6">
         <f>SUM(B$2:B$59)</f>
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C60" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D47BB99-0C4C-4C6E-8F2A-2727515BF1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D5DAA-5D4B-431E-84A2-85A2D19FAE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18930" yWindow="2595" windowWidth="8625" windowHeight="9990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Päivä</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>CSS: sivuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS: Responsiivisuus käyttäjä ja paikka sivu done </t>
+  </si>
+  <si>
+    <t>CSS: responsiivisuutta paikka sivu</t>
   </si>
 </sst>
 </file>
@@ -396,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C60" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C60" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C61" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C61" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
@@ -706,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,14 +1254,26 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -1304,11 +1322,16 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="6">
-        <f>SUM(B$2:B$59)</f>
-        <v>157</v>
-      </c>
+      <c r="B60" s="6"/>
       <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="6">
+        <f>SUM(B$2:B$60)</f>
+        <v>163.5</v>
+      </c>
+      <c r="C61" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D5DAA-5D4B-431E-84A2-85A2D19FAE3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FFF84C-F60F-4871-A0AF-9526DE82DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18930" yWindow="2595" windowWidth="8625" windowHeight="9990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Päivä</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>CSS: responsiivisuutta paikka sivu</t>
+  </si>
+  <si>
+    <t>CSS: responsiivisuus käyttäjä asetus sivuja</t>
+  </si>
+  <si>
+    <t>html done ja css pääosin</t>
   </si>
 </sst>
 </file>
@@ -715,7 +721,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,14 +1282,26 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B51" s="6">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -1329,7 +1347,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <f>SUM(B$2:B$60)</f>
-        <v>163.5</v>
+        <v>170</v>
       </c>
       <c r="C61" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FFF84C-F60F-4871-A0AF-9526DE82DF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F47931-A53D-4262-94F5-20F0B93F4612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18930" yWindow="2595" windowWidth="8625" windowHeight="9990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-24435" yWindow="2190" windowWidth="14130" windowHeight="10395" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Päivä</t>
   </si>
@@ -176,28 +176,34 @@
     <t>Html pohjat valmiiks</t>
   </si>
   <si>
-    <t>Html sivujen ja css:n toteuttamista</t>
-  </si>
-  <si>
-    <t>Landing page css: footer ja content</t>
-  </si>
-  <si>
-    <t>CSS: responsiivisuutta</t>
-  </si>
-  <si>
-    <t>CSS: sivuja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS: Responsiivisuus käyttäjä ja paikka sivu done </t>
-  </si>
-  <si>
-    <t>CSS: responsiivisuutta paikka sivu</t>
-  </si>
-  <si>
-    <t>CSS: responsiivisuus käyttäjä asetus sivuja</t>
-  </si>
-  <si>
     <t>html done ja css pääosin</t>
+  </si>
+  <si>
+    <t>SCSS: responsiivisuus käyttäjä asetus sivuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCSS: Responsiivisuus käyttäjä ja paikka sivu done </t>
+  </si>
+  <si>
+    <t>SCSS: responsiivisuutta paikka sivu</t>
+  </si>
+  <si>
+    <t>SCSS: sivuja</t>
+  </si>
+  <si>
+    <t>SCSS: responsiivisuutta</t>
+  </si>
+  <si>
+    <t>Landing page scss: footer ja content</t>
+  </si>
+  <si>
+    <t>Html sivujen ja scss:n toteuttamista</t>
+  </si>
+  <si>
+    <t>html:n ja scss:n siirto Reactiin</t>
+  </si>
+  <si>
+    <t>html:n ja scss:n siirto Reactiin + jakamista komponentteihin</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1251,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1267,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,7 +1284,7 @@
         <v>2.5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,18 +1306,30 @@
         <v>2.5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
+      <c r="A53" s="2">
+        <v>44079</v>
+      </c>
+      <c r="B53" s="6">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44080</v>
+      </c>
+      <c r="B54" s="6">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
@@ -1347,7 +1365,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <f>SUM(B$2:B$60)</f>
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C61" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F47931-A53D-4262-94F5-20F0B93F4612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A4946-26F4-43A6-9B34-DAD26E041295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24435" yWindow="2190" windowWidth="14130" windowHeight="10395" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Päivä</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>html:n ja scss:n siirto Reactiin + jakamista komponentteihin</t>
+  </si>
+  <si>
+    <t>Frontti puole korjaamista</t>
   </si>
 </sst>
 </file>
@@ -727,7 +730,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,9 +1335,15 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
@@ -1365,7 +1374,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="6">
         <f>SUM(B$2:B$60)</f>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C61" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A4946-26F4-43A6-9B34-DAD26E041295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9F8B5-6848-417C-8696-22663F3FCFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24435" yWindow="2190" windowWidth="14130" windowHeight="10395" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-24435" yWindow="2175" windowWidth="14070" windowHeight="10410" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Päivä</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Frontti puole korjaamista</t>
+  </si>
+  <si>
+    <t>Formik ja jakamista pienempiin komponentteihin</t>
+  </si>
+  <si>
+    <t>Frontin työstöä</t>
   </si>
 </sst>
 </file>
@@ -417,8 +423,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C61" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C61" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1E38EF31-D64B-4356-982E-F2FAEB215E8B}" name="Table1" displayName="Table1" ref="A1:C62" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C62" xr:uid="{B30BF170-5FD0-4BDF-BBEC-E02979536BF7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2B7E2D50-4609-4344-9894-701204051296}" name="Päivä" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{F3C4214F-98CB-4F08-9353-9A647E484DFD}" name="Aika (h)" dataDxfId="1">
@@ -727,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,14 +1352,26 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B56" s="6">
+        <v>4</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B57" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -1372,11 +1390,16 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="6">
-        <f>SUM(B$2:B$60)</f>
-        <v>176</v>
-      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="6">
+        <f>SUM(B$2:B$61)</f>
+        <v>183.5</v>
+      </c>
+      <c r="C62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA9F8B5-6848-417C-8696-22663F3FCFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284140B4-6331-4EF5-AA73-0683EC569540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24435" yWindow="2175" windowWidth="14070" windowHeight="10410" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-14730" yWindow="1320" windowWidth="14070" windowHeight="10410" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Päivä</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Frontin työstöä</t>
+  </si>
+  <si>
+    <t>Frontin jakamista ja backendin malleihin lisäystä</t>
   </si>
 </sst>
 </file>
@@ -736,7 +739,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,9 +1377,15 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B58" s="6">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -1397,7 +1406,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <f>SUM(B$2:B$61)</f>
-        <v>183.5</v>
+        <v>184.5</v>
       </c>
       <c r="C62" s="3"/>
     </row>

--- a/Työaikakirjanpito_fullstackHt.xlsx
+++ b/Työaikakirjanpito_fullstackHt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kurssit\FullStackHarjoitustyo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kouluhommat\ClimbingFinland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284140B4-6331-4EF5-AA73-0683EC569540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D974D08C-7F12-46D6-A4D8-2FF6979A377A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14730" yWindow="1320" windowWidth="14070" windowHeight="10410" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50B33E53-4B49-48DC-982C-197E5C8FA7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Päivä</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>Frontin jakamista ja backendin malleihin lisäystä</t>
+  </si>
+  <si>
+    <t>14.2.2021 -14.3.2021</t>
+  </si>
+  <si>
+    <t>Pitkän ajan jälkeen projektin puhhistamista ja deployaaminen</t>
   </si>
 </sst>
 </file>
@@ -738,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222E630B-CF39-4DAE-A968-DC7A76C0B9F6}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,10 +1393,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="6">
+        <v>20</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -1406,7 +1418,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="6">
         <f>SUM(B$2:B$61)</f>
-        <v>184.5</v>
+        <v>204.5</v>
       </c>
       <c r="C62" s="3"/>
     </row>
